--- a/8. Matriz de Asignación de Responsabilidades (RACI) v1.1.xlsx
+++ b/8. Matriz de Asignación de Responsabilidades (RACI) v1.1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAE66082-2A1F-41F6-8C2A-31FE897DEEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18419FEA-EC87-4EC2-835B-9843EA0122B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="930" yWindow="0" windowWidth="23070" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -265,11 +265,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -277,19 +280,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -632,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,75 +647,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
     </row>
     <row r="2" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
     </row>
     <row r="4" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1144,6 +1144,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100CD60904508814A439128043ED18E5729" ma:contentTypeVersion="0" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="98ca1fe9be1e473138a4c265251f412a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b2b1fa7a59e354d7f595b7732424404">
     <xsd:element name="properties">
@@ -1257,32 +1272,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F52055E-238B-4EE3-BFD4-5C3EAF92DB69}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1845C159-FE27-4EEC-850E-304D0F94872C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -1297,9 +1290,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1845C159-FE27-4EEC-850E-304D0F94872C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F52055E-238B-4EE3-BFD4-5C3EAF92DB69}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
